--- a/padel_test_cases.xlsx
+++ b/padel_test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYthon &amp; AI\Matlaab\projects\Pedal position sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PedalMATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D2BAD-D9EB-476B-B6D1-69A6D4A05E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFC7E8-D346-4610-997A-05D57C5763B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="36" windowWidth="8652" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>time</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>APP_bCoherencyFailure</t>
+  </si>
+  <si>
+    <t>Input_2</t>
+  </si>
+  <si>
+    <t>Input_1</t>
   </si>
 </sst>
 </file>
@@ -371,40 +377,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -424,11 +436,19 @@
         <v>4.5</v>
       </c>
       <c r="F2">
-        <f>IF(D2+E2=5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <f>IF(D2+E2&lt;&gt;5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF(OR(D2&lt;0.5, D2&gt;4.5),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(OR(E2&lt;0.5, E2&gt;4.5),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -449,11 +469,19 @@
         <v>2.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="2">IF(D3+E3=5,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F11" si="2">IF(D3+E3&lt;&gt;5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="3">IF(OR(D3&lt;0.5, D3&gt;4.5),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="4">IF(OR(E3&lt;0.5, E3&gt;4.5),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -475,10 +503,18 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -500,10 +536,18 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -525,10 +569,18 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -550,10 +602,18 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -575,10 +635,18 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -600,10 +668,18 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -625,10 +701,18 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -650,10 +734,18 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -674,7 +766,15 @@
         <v>2.5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f>IF(D12+E12&lt;&gt;5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>IF(OR(D12&lt;0.5, D12&gt;4.5),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
